--- a/data/trans_dic/P55$nadie-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P55$nadie-Edad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02006202392741905</v>
+        <v>0.02002843564685087</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02061120012867059</v>
+        <v>0.02091523491563739</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02858676066824395</v>
+        <v>0.02703607768041276</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04013465034099827</v>
+        <v>0.04068920590774831</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01346440670836607</v>
+        <v>0.01340117452028747</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.07443165680467734</v>
+        <v>0.07269403809050808</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02149463036265473</v>
+        <v>0.02115974878225822</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04856367457535762</v>
+        <v>0.04228111874348986</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01731024479020744</v>
+        <v>0.0247725816858602</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.06059695639678196</v>
+        <v>0.0549922880337232</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.03139703938170137</v>
+        <v>0.03282687671707785</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2320219502190039</v>
+        <v>0.2230086340636893</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1669892846657637</v>
+        <v>0.1730497528252925</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1430720991180973</v>
+        <v>0.2009259086976216</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1462628471006409</v>
+        <v>0.1403141075641494</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.173081518104328</v>
+        <v>0.1831890490167363</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1119616373344859</v>
+        <v>0.1194513725066621</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2234358487809749</v>
+        <v>0.2261760405167319</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.09923332379408926</v>
+        <v>0.100468841786794</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1584225778986807</v>
+        <v>0.1530538661078697</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1043011152926844</v>
+        <v>0.1099451218343894</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1770288970252148</v>
+        <v>0.1764722276488112</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.0965742914484627</v>
+        <v>0.09553373566195264</v>
       </c>
     </row>
     <row r="7">
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01071914879391695</v>
+        <v>0.01075151795273983</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>0</v>
@@ -853,31 +853,31 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02108113701744059</v>
+        <v>0.01991545407534486</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02161960707313736</v>
+        <v>0.0256986630407673</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.005053818722841589</v>
+        <v>0.005101836385013474</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0269285892460042</v>
+        <v>0.02719864055770988</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02818532234810631</v>
+        <v>0.02702357207057337</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02435598658857124</v>
+        <v>0.02628924822520413</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.007290517089925312</v>
+        <v>0.007258638465127683</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02081263563076977</v>
+        <v>0.02042061413769097</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.03144213235281467</v>
+        <v>0.03155408652137407</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.09283093209158508</v>
+        <v>0.0932120908425752</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1169816990414363</v>
+        <v>0.121278693744588</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0381170075007164</v>
+        <v>0.04388921541145688</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.09492894398384902</v>
+        <v>0.08865504343704704</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.103699024444818</v>
+        <v>0.1008700775545765</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.0432756729846193</v>
+        <v>0.04905664048139181</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1023218373922373</v>
+        <v>0.1109436270435283</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.06553434204845378</v>
+        <v>0.06535247103083247</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.08450533970171935</v>
+        <v>0.08374192140468033</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.05000588192602093</v>
+        <v>0.0536771627643538</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.08351959445507513</v>
+        <v>0.07751098834822855</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.06346112150667496</v>
+        <v>0.06238121884814657</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.08287831511978425</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.04571577096654536</v>
+        <v>0.04571577096654537</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.06054996571720619</v>
@@ -969,7 +969,7 @@
         <v>0.06175447496768832</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.04828688822267438</v>
+        <v>0.04828688822267437</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0199091249666376</v>
+        <v>0.0211734986049134</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01377389946623971</v>
+        <v>0.01358335476576408</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0299424149634934</v>
+        <v>0.02901691699966226</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03984417408726114</v>
+        <v>0.03668331944547178</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01053305947733116</v>
+        <v>0.008157417747656203</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05258541567916753</v>
+        <v>0.0531969080621867</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.0322207882020415</v>
+        <v>0.03075173194792116</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0370109929040582</v>
+        <v>0.03952450256551555</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01508180253577991</v>
+        <v>0.01522285783921976</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03955809089055019</v>
+        <v>0.03998281215759915</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.03494082235305049</v>
+        <v>0.03624994510954131</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1050816514254934</v>
+        <v>0.1131137808070915</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1021107499601447</v>
+        <v>0.1078470775490848</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05011038817406768</v>
+        <v>0.04913859309142663</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.08560705232974312</v>
+        <v>0.08675985811115709</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1081398890618986</v>
+        <v>0.1018783828858286</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04639682697974521</v>
+        <v>0.04711162068453293</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1286937978937972</v>
+        <v>0.1264950229359623</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.06567140122014251</v>
+        <v>0.06478859836722661</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0899787508579853</v>
+        <v>0.09151907305314388</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.05320471741105751</v>
+        <v>0.05405815566549491</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.09216449371671438</v>
+        <v>0.09273371805964825</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.06553657826236772</v>
+        <v>0.06493848511532305</v>
       </c>
     </row>
     <row r="13">
@@ -1326,40 +1326,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>937</v>
+        <v>951</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1574</v>
+        <v>1489</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2716</v>
+        <v>2753</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>6114</v>
+        <v>5971</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1731</v>
+        <v>1704</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>5315</v>
+        <v>4627</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1994</v>
+        <v>2853</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>6876</v>
+        <v>6240</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>4257</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="7">
@@ -1370,40 +1370,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>9695</v>
+        <v>9318</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>7591</v>
+        <v>7866</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>4484</v>
+        <v>6297</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>8054</v>
+        <v>7726</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>11711</v>
+        <v>12395</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>7806</v>
+        <v>8328</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>18353</v>
+        <v>18578</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>7990</v>
+        <v>8090</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>17339</v>
+        <v>16751</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>12013</v>
+        <v>12663</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>20089</v>
+        <v>20026</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>13094</v>
+        <v>12952</v>
       </c>
     </row>
     <row r="8">
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>0</v>
@@ -1515,31 +1515,31 @@
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>2404</v>
+        <v>2272</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3530</v>
+        <v>4196</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1060</v>
+        <v>1070</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>4988</v>
+        <v>5038</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>7800</v>
+        <v>7478</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>6042</v>
+        <v>6521</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>2264</v>
+        <v>2254</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>5731</v>
+        <v>5623</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>12287</v>
+        <v>12331</v>
       </c>
     </row>
     <row r="11">
@@ -1550,40 +1550,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>7872</v>
+        <v>7904</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>11781</v>
+        <v>12214</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>3435</v>
+        <v>3955</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>10828</v>
+        <v>10112</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>16930</v>
+        <v>16468</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>9080</v>
+        <v>10293</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>18952</v>
+        <v>20549</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>18135</v>
+        <v>18085</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>20962</v>
+        <v>20773</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>15528</v>
+        <v>16668</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>22997</v>
+        <v>21342</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>24799</v>
+        <v>24377</v>
       </c>
     </row>
     <row r="12">
@@ -1686,40 +1686,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2520</v>
+        <v>2680</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2013</v>
+        <v>1985</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>5064</v>
+        <v>4907</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>9201</v>
+        <v>8471</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2944</v>
+        <v>2280</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>14059</v>
+        <v>14223</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>11511</v>
+        <v>10986</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>13231</v>
+        <v>14130</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>6420</v>
+        <v>6480</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>15381</v>
+        <v>15546</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>18392</v>
+        <v>19081</v>
       </c>
     </row>
     <row r="15">
@@ -1730,40 +1730,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>13301</v>
+        <v>14318</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>14925</v>
+        <v>15764</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>6086</v>
+        <v>5968</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>14478</v>
+        <v>14673</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>24972</v>
+        <v>23526</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>12969</v>
+        <v>13169</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>34408</v>
+        <v>33820</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>23461</v>
+        <v>23145</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>32167</v>
+        <v>32718</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>22649</v>
+        <v>23012</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>35835</v>
+        <v>36057</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>34496</v>
+        <v>34181</v>
       </c>
     </row>
     <row r="16">
